--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Psen1-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Psen1-Notch3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.2726235</v>
+        <v>18.2248715</v>
       </c>
       <c r="H2">
-        <v>32.545247</v>
+        <v>36.449743</v>
       </c>
       <c r="I2">
-        <v>0.1150896855633734</v>
+        <v>0.1050100244082758</v>
       </c>
       <c r="J2">
-        <v>0.08350961674642161</v>
+        <v>0.07502966121475142</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N2">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O2">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P2">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q2">
-        <v>73.76570622244951</v>
+        <v>509.1502762811079</v>
       </c>
       <c r="R2">
-        <v>295.062824889798</v>
+        <v>2036.601105124432</v>
       </c>
       <c r="S2">
-        <v>0.004537248515827635</v>
+        <v>0.0203008571059816</v>
       </c>
       <c r="T2">
-        <v>0.003051719799226194</v>
+        <v>0.01434400430638303</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.2726235</v>
+        <v>18.2248715</v>
       </c>
       <c r="H3">
-        <v>32.545247</v>
+        <v>36.449743</v>
       </c>
       <c r="I3">
-        <v>0.1150896855633734</v>
+        <v>0.1050100244082758</v>
       </c>
       <c r="J3">
-        <v>0.08350961674642161</v>
+        <v>0.07502966121475142</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.157581</v>
       </c>
       <c r="O3">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P3">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q3">
-        <v>44.24841476125118</v>
+        <v>49.55695515861384</v>
       </c>
       <c r="R3">
-        <v>265.490488567507</v>
+        <v>297.341730951683</v>
       </c>
       <c r="S3">
-        <v>0.002721671959565844</v>
+        <v>0.001975936598975948</v>
       </c>
       <c r="T3">
-        <v>0.002745864650249643</v>
+        <v>0.00209421032842744</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.2726235</v>
+        <v>18.2248715</v>
       </c>
       <c r="H4">
-        <v>32.545247</v>
+        <v>36.449743</v>
       </c>
       <c r="I4">
-        <v>0.1150896855633734</v>
+        <v>0.1050100244082758</v>
       </c>
       <c r="J4">
-        <v>0.08350961674642161</v>
+        <v>0.07502966121475142</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N4">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O4">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P4">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q4">
-        <v>1.028494895694</v>
+        <v>1.500447595637833</v>
       </c>
       <c r="R4">
-        <v>6.170969374164001</v>
+        <v>9.002685573827</v>
       </c>
       <c r="S4">
-        <v>6.326160458562393E-05</v>
+        <v>5.982589748657973E-05</v>
       </c>
       <c r="T4">
-        <v>6.382393114614923E-05</v>
+        <v>6.340689903146103E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.2726235</v>
+        <v>18.2248715</v>
       </c>
       <c r="H5">
-        <v>32.545247</v>
+        <v>36.449743</v>
       </c>
       <c r="I5">
-        <v>0.1150896855633734</v>
+        <v>0.1050100244082758</v>
       </c>
       <c r="J5">
-        <v>0.08350961674642161</v>
+        <v>0.07502966121475142</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N5">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O5">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P5">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q5">
-        <v>1502.388165566885</v>
+        <v>2065.419511231494</v>
       </c>
       <c r="R5">
-        <v>6009.55266226754</v>
+        <v>8261.678044925977</v>
       </c>
       <c r="S5">
-        <v>0.09241026519638725</v>
+        <v>0.0823524768908639</v>
       </c>
       <c r="T5">
-        <v>0.062154461006004</v>
+        <v>0.05818790196872051</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.2726235</v>
+        <v>18.2248715</v>
       </c>
       <c r="H6">
-        <v>32.545247</v>
+        <v>36.449743</v>
       </c>
       <c r="I6">
-        <v>0.1150896855633734</v>
+        <v>0.1050100244082758</v>
       </c>
       <c r="J6">
-        <v>0.08350961674642161</v>
+        <v>0.07502966121475142</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N6">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O6">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P6">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q6">
-        <v>247.379156247748</v>
+        <v>6.414638396640832</v>
       </c>
       <c r="R6">
-        <v>1484.274937486488</v>
+        <v>38.48783037984499</v>
       </c>
       <c r="S6">
-        <v>0.01521602336656265</v>
+        <v>0.0002557646799838933</v>
       </c>
       <c r="T6">
-        <v>0.01535127719296553</v>
+        <v>0.0002710739983999497</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.2726235</v>
+        <v>18.2248715</v>
       </c>
       <c r="H7">
-        <v>32.545247</v>
+        <v>36.449743</v>
       </c>
       <c r="I7">
-        <v>0.1150896855633734</v>
+        <v>0.1050100244082758</v>
       </c>
       <c r="J7">
-        <v>0.08350961674642161</v>
+        <v>0.07502966121475142</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N7">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O7">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P7">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q7">
-        <v>2.295844783328834</v>
+        <v>1.634309276805333</v>
       </c>
       <c r="R7">
-        <v>13.775068699973</v>
+        <v>9.805855660831998</v>
       </c>
       <c r="S7">
-        <v>0.000141214920444416</v>
+        <v>6.516323498386417E-05</v>
       </c>
       <c r="T7">
-        <v>0.0001424701668300951</v>
+        <v>6.906371378903423E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>71.79459</v>
       </c>
       <c r="I8">
-        <v>0.169258034068719</v>
+        <v>0.137891263015346</v>
       </c>
       <c r="J8">
-        <v>0.1842216375056694</v>
+        <v>0.147784958723906</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N8">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O8">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P8">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q8">
-        <v>108.48442547901</v>
+        <v>668.5778339413599</v>
       </c>
       <c r="R8">
-        <v>650.90655287406</v>
+        <v>4011.46700364816</v>
       </c>
       <c r="S8">
-        <v>0.006672759249544765</v>
+        <v>0.02665755809896996</v>
       </c>
       <c r="T8">
-        <v>0.006732072790239597</v>
+        <v>0.02825320080130616</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>71.79459</v>
       </c>
       <c r="I9">
-        <v>0.169258034068719</v>
+        <v>0.137891263015346</v>
       </c>
       <c r="J9">
-        <v>0.1842216375056694</v>
+        <v>0.147784958723906</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>8.157581</v>
       </c>
       <c r="O9">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P9">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q9">
         <v>65.07446480964333</v>
@@ -1013,10 +1013,10 @@
         <v>585.67018328679</v>
       </c>
       <c r="S9">
-        <v>0.004002659691014714</v>
+        <v>0.002594651270736855</v>
       </c>
       <c r="T9">
-        <v>0.006057358445003243</v>
+        <v>0.004124939149864881</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>71.79459</v>
       </c>
       <c r="I10">
-        <v>0.169258034068719</v>
+        <v>0.137891263015346</v>
       </c>
       <c r="J10">
-        <v>0.1842216375056694</v>
+        <v>0.147784958723906</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N10">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O10">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P10">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q10">
-        <v>1.51256842212</v>
+        <v>1.970274887723333</v>
       </c>
       <c r="R10">
-        <v>13.61311579908</v>
+        <v>17.73247398951</v>
       </c>
       <c r="S10">
-        <v>9.303644172612957E-05</v>
+        <v>7.85588672313551E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001407951510961344</v>
+        <v>0.0001248917535340412</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>71.79459</v>
       </c>
       <c r="I11">
-        <v>0.169258034068719</v>
+        <v>0.137891263015346</v>
       </c>
       <c r="J11">
-        <v>0.1842216375056694</v>
+        <v>0.147784958723906</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N11">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O11">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P11">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q11">
-        <v>2209.505274666305</v>
+        <v>2712.15349834548</v>
       </c>
       <c r="R11">
-        <v>13257.03164799783</v>
+        <v>16272.92099007288</v>
       </c>
       <c r="S11">
-        <v>0.1359042709895732</v>
+        <v>0.1081390763873433</v>
       </c>
       <c r="T11">
-        <v>0.1371123115027225</v>
+        <v>0.1146119621420782</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>71.79459</v>
       </c>
       <c r="I12">
-        <v>0.169258034068719</v>
+        <v>0.137891263015346</v>
       </c>
       <c r="J12">
-        <v>0.1842216375056694</v>
+        <v>0.147784958723906</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N12">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O12">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P12">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q12">
-        <v>363.81113955704</v>
+        <v>8.423220499983332</v>
       </c>
       <c r="R12">
-        <v>3274.30025601336</v>
+        <v>75.80898449985</v>
       </c>
       <c r="S12">
-        <v>0.02237762827104031</v>
+        <v>0.0003358509338172806</v>
       </c>
       <c r="T12">
-        <v>0.03386481141302479</v>
+        <v>0.0005339309683139616</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>71.79459</v>
       </c>
       <c r="I13">
-        <v>0.169258034068719</v>
+        <v>0.137891263015346</v>
       </c>
       <c r="J13">
-        <v>0.1842216375056694</v>
+        <v>0.147784958723906</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N13">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O13">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P13">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q13">
-        <v>3.376411818756667</v>
+        <v>2.146051975573333</v>
       </c>
       <c r="R13">
-        <v>30.38770636881</v>
+        <v>19.31446778016</v>
       </c>
       <c r="S13">
-        <v>0.0002076794258198842</v>
+        <v>8.556745724727852E-05</v>
       </c>
       <c r="T13">
-        <v>0.0003142882035830999</v>
+        <v>0.0001360339088086591</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.08101266666667</v>
+        <v>40.038578</v>
       </c>
       <c r="H14">
-        <v>105.243038</v>
+        <v>120.115734</v>
       </c>
       <c r="I14">
-        <v>0.2481138162541146</v>
+        <v>0.230698584242564</v>
       </c>
       <c r="J14">
-        <v>0.2700488267490822</v>
+        <v>0.2472512036252546</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N14">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O14">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P14">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q14">
-        <v>159.026334896482</v>
+        <v>1118.562237906736</v>
       </c>
       <c r="R14">
-        <v>954.1580093788921</v>
+        <v>6711.373427440416</v>
       </c>
       <c r="S14">
-        <v>0.009781537233720413</v>
+        <v>0.04459935153478029</v>
       </c>
       <c r="T14">
-        <v>0.009868484414799946</v>
+        <v>0.04726893700623233</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.08101266666667</v>
+        <v>40.038578</v>
       </c>
       <c r="H15">
-        <v>105.243038</v>
+        <v>120.115734</v>
       </c>
       <c r="I15">
-        <v>0.2481138162541146</v>
+        <v>0.230698584242564</v>
       </c>
       <c r="J15">
-        <v>0.2700488267490822</v>
+        <v>0.2472512036252546</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>8.157581</v>
       </c>
       <c r="O15">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P15">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q15">
-        <v>95.39206746345315</v>
+        <v>108.8726477199394</v>
       </c>
       <c r="R15">
-        <v>858.5286071710782</v>
+        <v>979.853829479454</v>
       </c>
       <c r="S15">
-        <v>0.005867462519982771</v>
+        <v>0.004340973907067232</v>
       </c>
       <c r="T15">
-        <v>0.008879426778634677</v>
+        <v>0.006901217677980419</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.08101266666667</v>
+        <v>40.038578</v>
       </c>
       <c r="H16">
-        <v>105.243038</v>
+        <v>120.115734</v>
       </c>
       <c r="I16">
-        <v>0.2481138162541146</v>
+        <v>0.230698584242564</v>
       </c>
       <c r="J16">
-        <v>0.2700488267490822</v>
+        <v>0.2472512036252546</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N16">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O16">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P16">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q16">
-        <v>2.217260324584</v>
+        <v>3.296362780547334</v>
       </c>
       <c r="R16">
-        <v>19.955342921256</v>
+        <v>29.667265024926</v>
       </c>
       <c r="S16">
-        <v>0.0001363812756917735</v>
+        <v>0.0001314326887263061</v>
       </c>
       <c r="T16">
-        <v>0.000206390334383499</v>
+        <v>0.0002089497919869512</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.08101266666667</v>
+        <v>40.038578</v>
       </c>
       <c r="H17">
-        <v>105.243038</v>
+        <v>120.115734</v>
       </c>
       <c r="I17">
-        <v>0.2481138162541146</v>
+        <v>0.230698584242564</v>
       </c>
       <c r="J17">
-        <v>0.2700488267490822</v>
+        <v>0.2472512036252546</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N17">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O17">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P17">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q17">
-        <v>3238.893732562668</v>
+        <v>4537.560673783848</v>
       </c>
       <c r="R17">
-        <v>19433.36239537601</v>
+        <v>27225.36404270309</v>
       </c>
       <c r="S17">
-        <v>0.1992208376162877</v>
+        <v>0.1809217732749475</v>
       </c>
       <c r="T17">
-        <v>0.2009916932424694</v>
+        <v>0.1917512163225104</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>35.08101266666667</v>
+        <v>40.038578</v>
       </c>
       <c r="H18">
-        <v>105.243038</v>
+        <v>120.115734</v>
       </c>
       <c r="I18">
-        <v>0.2481138162541146</v>
+        <v>0.230698584242564</v>
       </c>
       <c r="J18">
-        <v>0.2700488267490822</v>
+        <v>0.2472512036252546</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N18">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O18">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P18">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q18">
-        <v>533.3074481687947</v>
+        <v>14.09244502962333</v>
       </c>
       <c r="R18">
-        <v>4799.767033519152</v>
+        <v>126.83200526661</v>
       </c>
       <c r="S18">
-        <v>0.03280316222265452</v>
+        <v>0.0005618944467828018</v>
       </c>
       <c r="T18">
-        <v>0.04964211975308728</v>
+        <v>0.0008932916834591888</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>35.08101266666667</v>
+        <v>40.038578</v>
       </c>
       <c r="H19">
-        <v>105.243038</v>
+        <v>120.115734</v>
       </c>
       <c r="I19">
-        <v>0.2481138162541146</v>
+        <v>0.230698584242564</v>
       </c>
       <c r="J19">
-        <v>0.2700488267490822</v>
+        <v>0.2472512036252546</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N19">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O19">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P19">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q19">
-        <v>4.949451446760223</v>
+        <v>3.590446135957333</v>
       </c>
       <c r="R19">
-        <v>44.54506302084201</v>
+        <v>32.314015223616</v>
       </c>
       <c r="S19">
-        <v>0.0003044353857773999</v>
+        <v>0.0001431583902599134</v>
       </c>
       <c r="T19">
-        <v>0.0004607122257073678</v>
+        <v>0.0002275911430853097</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.181244</v>
+        <v>16.631589</v>
       </c>
       <c r="H20">
-        <v>36.362488</v>
+        <v>33.263178</v>
       </c>
       <c r="I20">
-        <v>0.1285885865368279</v>
+        <v>0.09582967796718955</v>
       </c>
       <c r="J20">
-        <v>0.09330448273526253</v>
+        <v>0.06847030378968577</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N20">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O20">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P20">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q20">
-        <v>82.41770625754799</v>
+        <v>464.6385646309679</v>
       </c>
       <c r="R20">
-        <v>329.670825030192</v>
+        <v>1858.554258523872</v>
       </c>
       <c r="S20">
-        <v>0.005069423646094932</v>
+        <v>0.01852608462750563</v>
       </c>
       <c r="T20">
-        <v>0.003409656856459712</v>
+        <v>0.01309000089454636</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.181244</v>
+        <v>16.631589</v>
       </c>
       <c r="H21">
-        <v>36.362488</v>
+        <v>33.263178</v>
       </c>
       <c r="I21">
-        <v>0.1285885865368279</v>
+        <v>0.09582967796718955</v>
       </c>
       <c r="J21">
-        <v>0.09330448273526253</v>
+        <v>0.06847030378968577</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>8.157581</v>
       </c>
       <c r="O21">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P21">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q21">
-        <v>49.43832353692134</v>
+        <v>45.224511475403</v>
       </c>
       <c r="R21">
-        <v>296.629941221528</v>
+        <v>271.347068852418</v>
       </c>
       <c r="S21">
-        <v>0.003040897614624017</v>
+        <v>0.001803193257314642</v>
       </c>
       <c r="T21">
-        <v>0.003067927872672984</v>
+        <v>0.001911127080482306</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.181244</v>
+        <v>16.631589</v>
       </c>
       <c r="H22">
-        <v>36.362488</v>
+        <v>33.263178</v>
       </c>
       <c r="I22">
-        <v>0.1285885865368279</v>
+        <v>0.09582967796718955</v>
       </c>
       <c r="J22">
-        <v>0.09330448273526253</v>
+        <v>0.06847030378968577</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N22">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O22">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P22">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q22">
-        <v>1.149127345776</v>
+        <v>1.369273178507</v>
       </c>
       <c r="R22">
-        <v>6.894764074656</v>
+        <v>8.215639071042</v>
       </c>
       <c r="S22">
-        <v>7.06815756416135E-05</v>
+        <v>5.459570667222137E-05</v>
       </c>
       <c r="T22">
-        <v>7.130985763957107E-05</v>
+        <v>5.786364444082681E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.181244</v>
+        <v>16.631589</v>
       </c>
       <c r="H23">
-        <v>36.362488</v>
+        <v>33.263178</v>
       </c>
       <c r="I23">
-        <v>0.1285885865368279</v>
+        <v>0.09582967796718955</v>
       </c>
       <c r="J23">
-        <v>0.09330448273526253</v>
+        <v>0.06847030378968577</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N23">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O23">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P23">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q23">
-        <v>1678.603688021414</v>
+        <v>1884.853257998724</v>
       </c>
       <c r="R23">
-        <v>6714.414752085656</v>
+        <v>7539.413031994895</v>
       </c>
       <c r="S23">
-        <v>0.1032490906976508</v>
+        <v>0.07515293311016465</v>
       </c>
       <c r="T23">
-        <v>0.06944457488607439</v>
+        <v>0.05310091049564054</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.181244</v>
+        <v>16.631589</v>
       </c>
       <c r="H24">
-        <v>36.362488</v>
+        <v>33.263178</v>
       </c>
       <c r="I24">
-        <v>0.1285885865368279</v>
+        <v>0.09582967796718955</v>
       </c>
       <c r="J24">
-        <v>0.09330448273526253</v>
+        <v>0.06847030378968577</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N24">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O24">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P24">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q24">
-        <v>276.394325736992</v>
+        <v>5.853848099644999</v>
       </c>
       <c r="R24">
-        <v>1658.365954421952</v>
+        <v>35.12308859786999</v>
       </c>
       <c r="S24">
-        <v>0.01700071494539137</v>
+        <v>0.0002334048302183442</v>
       </c>
       <c r="T24">
-        <v>0.01715183273041014</v>
+        <v>0.0002473757540608514</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.181244</v>
+        <v>16.631589</v>
       </c>
       <c r="H25">
-        <v>36.362488</v>
+        <v>33.263178</v>
       </c>
       <c r="I25">
-        <v>0.1285885865368279</v>
+        <v>0.09582967796718955</v>
       </c>
       <c r="J25">
-        <v>0.09330448273526253</v>
+        <v>0.06847030378968577</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1987,28 +1987,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N25">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O25">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P25">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q25">
-        <v>2.565125051398667</v>
+        <v>1.491432199712</v>
       </c>
       <c r="R25">
-        <v>15.390750308392</v>
+        <v>8.948593198271999</v>
       </c>
       <c r="S25">
-        <v>0.0001577780574251297</v>
+        <v>5.946643531407343E-05</v>
       </c>
       <c r="T25">
-        <v>0.0001591805320057128</v>
+        <v>6.302592051487715E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.13617966666667</v>
+        <v>40.65061833333333</v>
       </c>
       <c r="H26">
-        <v>30.408539</v>
+        <v>121.951855</v>
       </c>
       <c r="I26">
-        <v>0.07168909983387288</v>
+        <v>0.2342251040505189</v>
       </c>
       <c r="J26">
-        <v>0.07802692164876225</v>
+        <v>0.251030751167724</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N26">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O26">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P26">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q26">
-        <v>45.94848836202101</v>
+        <v>1135.660877247587</v>
       </c>
       <c r="R26">
-        <v>275.6909301721261</v>
+        <v>6813.965263485519</v>
       </c>
       <c r="S26">
-        <v>0.002826241641290698</v>
+        <v>0.04528110906322692</v>
       </c>
       <c r="T26">
-        <v>0.002851363842217633</v>
+        <v>0.04799150252695604</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>10.13617966666667</v>
+        <v>40.65061833333333</v>
       </c>
       <c r="H27">
-        <v>30.408539</v>
+        <v>121.951855</v>
       </c>
       <c r="I27">
-        <v>0.07168909983387288</v>
+        <v>0.2342251040505189</v>
       </c>
       <c r="J27">
-        <v>0.07802692164876225</v>
+        <v>0.251030751167724</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>8.157581</v>
       </c>
       <c r="O27">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P27">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q27">
-        <v>27.56223555379545</v>
+        <v>110.5369039180839</v>
       </c>
       <c r="R27">
-        <v>248.0601199841591</v>
+        <v>994.8321352627551</v>
       </c>
       <c r="S27">
-        <v>0.001695323189643522</v>
+        <v>0.004407331186715694</v>
       </c>
       <c r="T27">
-        <v>0.002565589141352579</v>
+        <v>0.007006711523641897</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>10.13617966666667</v>
+        <v>40.65061833333333</v>
       </c>
       <c r="H28">
-        <v>30.408539</v>
+        <v>121.951855</v>
       </c>
       <c r="I28">
-        <v>0.07168909983387288</v>
+        <v>0.2342251040505189</v>
       </c>
       <c r="J28">
-        <v>0.07802692164876225</v>
+        <v>0.251030751167724</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N28">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O28">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P28">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q28">
-        <v>0.6406470996520001</v>
+        <v>3.346751857177223</v>
       </c>
       <c r="R28">
-        <v>5.765823896868001</v>
+        <v>30.120766714595</v>
       </c>
       <c r="S28">
-        <v>3.940550766638878E-05</v>
+        <v>0.0001334418037008425</v>
       </c>
       <c r="T28">
-        <v>5.963366937700591E-05</v>
+        <v>0.0002121438539823004</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>10.13617966666667</v>
+        <v>40.65061833333333</v>
       </c>
       <c r="H29">
-        <v>30.408539</v>
+        <v>121.951855</v>
       </c>
       <c r="I29">
-        <v>0.07168909983387288</v>
+        <v>0.2342251040505189</v>
       </c>
       <c r="J29">
-        <v>0.07802692164876225</v>
+        <v>0.251030751167724</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N29">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O29">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P29">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q29">
-        <v>935.8341250419575</v>
+        <v>4606.92303094106</v>
       </c>
       <c r="R29">
-        <v>5615.004750251745</v>
+        <v>27641.53818564636</v>
       </c>
       <c r="S29">
-        <v>0.05756214116764238</v>
+        <v>0.183687391534978</v>
       </c>
       <c r="T29">
-        <v>0.05807380572422915</v>
+        <v>0.1946823763241244</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>10.13617966666667</v>
+        <v>40.65061833333333</v>
       </c>
       <c r="H30">
-        <v>30.408539</v>
+        <v>121.951855</v>
       </c>
       <c r="I30">
-        <v>0.07168909983387288</v>
+        <v>0.2342251040505189</v>
       </c>
       <c r="J30">
-        <v>0.07802692164876225</v>
+        <v>0.251030751167724</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N30">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O30">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P30">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q30">
-        <v>154.0919061708507</v>
+        <v>14.30786588581389</v>
       </c>
       <c r="R30">
-        <v>1386.827155537656</v>
+        <v>128.770792972325</v>
       </c>
       <c r="S30">
-        <v>0.009478025879212237</v>
+        <v>0.0005704837144762522</v>
       </c>
       <c r="T30">
-        <v>0.0143434127638393</v>
+        <v>0.0009069467772966438</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>10.13617966666667</v>
+        <v>40.65061833333333</v>
       </c>
       <c r="H31">
-        <v>30.408539</v>
+        <v>121.951855</v>
       </c>
       <c r="I31">
-        <v>0.07168909983387288</v>
+        <v>0.2342251040505189</v>
       </c>
       <c r="J31">
-        <v>0.07802692164876225</v>
+        <v>0.251030751167724</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2359,28 +2359,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N31">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O31">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P31">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q31">
-        <v>1.430076423177889</v>
+        <v>3.645330648835555</v>
       </c>
       <c r="R31">
-        <v>12.870687808601</v>
+        <v>32.80797583952</v>
       </c>
       <c r="S31">
-        <v>8.796244841765314E-05</v>
+        <v>0.0001453467474212028</v>
       </c>
       <c r="T31">
-        <v>0.0001331165077465675</v>
+        <v>0.0002310701617227261</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>37.788217</v>
+        <v>34.07644866666666</v>
       </c>
       <c r="H32">
-        <v>113.364651</v>
+        <v>102.229346</v>
       </c>
       <c r="I32">
-        <v>0.2672607777430924</v>
+        <v>0.1963453463161056</v>
       </c>
       <c r="J32">
-        <v>0.290888514614802</v>
+        <v>0.2104331214786783</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N32">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O32">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P32">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q32">
-        <v>171.298408882389</v>
+        <v>951.9975629629172</v>
       </c>
       <c r="R32">
-        <v>1027.790453294334</v>
+        <v>5711.985377777503</v>
       </c>
       <c r="S32">
-        <v>0.01053637918305076</v>
+        <v>0.03795807915909405</v>
       </c>
       <c r="T32">
-        <v>0.01063003608450314</v>
+        <v>0.04023013767923467</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>37.788217</v>
+        <v>34.07644866666666</v>
       </c>
       <c r="H33">
-        <v>113.364651</v>
+        <v>102.229346</v>
       </c>
       <c r="I33">
-        <v>0.2672607777430924</v>
+        <v>0.1963453463161056</v>
       </c>
       <c r="J33">
-        <v>0.290888514614802</v>
+        <v>0.2104331214786783</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>8.157581</v>
       </c>
       <c r="O33">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P33">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q33">
-        <v>102.7534803410257</v>
+        <v>92.66046339689179</v>
       </c>
       <c r="R33">
-        <v>924.7813230692311</v>
+        <v>833.944170572026</v>
       </c>
       <c r="S33">
-        <v>0.006320255035144722</v>
+        <v>0.003694561143193346</v>
       </c>
       <c r="T33">
-        <v>0.009564652797650846</v>
+        <v>0.005873559993593984</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>37.788217</v>
+        <v>34.07644866666666</v>
       </c>
       <c r="H34">
-        <v>113.364651</v>
+        <v>102.229346</v>
       </c>
       <c r="I34">
-        <v>0.2672607777430924</v>
+        <v>0.1963453463161056</v>
       </c>
       <c r="J34">
-        <v>0.290888514614802</v>
+        <v>0.2104331214786783</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2545,28 +2545,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N34">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O34">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P34">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q34">
-        <v>2.388366467268</v>
+        <v>2.805502659910445</v>
       </c>
       <c r="R34">
-        <v>21.495298205412</v>
+        <v>25.249523939194</v>
       </c>
       <c r="S34">
-        <v>0.0001469058287896695</v>
+        <v>0.0001118610973272814</v>
       </c>
       <c r="T34">
-        <v>0.0002223174917010536</v>
+        <v>0.0001778351583953361</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>37.788217</v>
+        <v>34.07644866666666</v>
       </c>
       <c r="H35">
-        <v>113.364651</v>
+        <v>102.229346</v>
       </c>
       <c r="I35">
-        <v>0.2672607777430924</v>
+        <v>0.1963453463161056</v>
       </c>
       <c r="J35">
-        <v>0.290888514614802</v>
+        <v>0.2104331214786783</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N35">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O35">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P35">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q35">
-        <v>3488.839400645715</v>
+        <v>3861.874249681912</v>
       </c>
       <c r="R35">
-        <v>20933.03640387429</v>
+        <v>23171.24549809147</v>
       </c>
       <c r="S35">
-        <v>0.2145947243398478</v>
+        <v>0.1539807812276963</v>
       </c>
       <c r="T35">
-        <v>0.216502237025233</v>
+        <v>0.1631976160538199</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,46 +2651,46 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>37.788217</v>
+        <v>34.07644866666666</v>
       </c>
       <c r="H36">
-        <v>113.364651</v>
+        <v>102.229346</v>
       </c>
       <c r="I36">
-        <v>0.2672607777430924</v>
+        <v>0.1963453463161056</v>
       </c>
       <c r="J36">
-        <v>0.290888514614802</v>
+        <v>0.2104331214786783</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M36">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N36">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O36">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P36">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q36">
-        <v>574.4628232544561</v>
+        <v>11.99394443128778</v>
       </c>
       <c r="R36">
-        <v>5170.165409290104</v>
+        <v>107.94549988159</v>
       </c>
       <c r="S36">
-        <v>0.03533458466932145</v>
+        <v>0.0004782229596635328</v>
       </c>
       <c r="T36">
-        <v>0.05347300579358936</v>
+        <v>0.0007602719606015303</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>37.788217</v>
+        <v>34.07644866666666</v>
       </c>
       <c r="H37">
-        <v>113.364651</v>
+        <v>102.229346</v>
       </c>
       <c r="I37">
-        <v>0.2672607777430924</v>
+        <v>0.1963453463161056</v>
       </c>
       <c r="J37">
-        <v>0.290888514614802</v>
+        <v>0.2104331214786783</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -2731,28 +2731,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N37">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O37">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P37">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q37">
-        <v>5.331400979734334</v>
+        <v>3.055794175367111</v>
       </c>
       <c r="R37">
-        <v>47.98260881760901</v>
+        <v>27.502147578304</v>
       </c>
       <c r="S37">
-        <v>0.000327928686937993</v>
+        <v>0.0001218407291311538</v>
       </c>
       <c r="T37">
-        <v>0.0004962654221246347</v>
+        <v>0.0001937006330328351</v>
       </c>
     </row>
   </sheetData>
